--- a/words.xlsx
+++ b/words.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="14400" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="523">
   <si>
     <t>adult</t>
   </si>
@@ -168,6 +168,24 @@
     <t>器具</t>
   </si>
   <si>
+    <t>astronomy</t>
+  </si>
+  <si>
+    <t>天文学</t>
+  </si>
+  <si>
+    <t>anymore</t>
+  </si>
+  <si>
+    <t>再</t>
+  </si>
+  <si>
+    <t>aging population</t>
+  </si>
+  <si>
+    <t>人口老龄化</t>
+  </si>
+  <si>
     <t>bench</t>
   </si>
   <si>
@@ -258,6 +276,24 @@
     <t>骨干</t>
   </si>
   <si>
+    <t>biologist</t>
+  </si>
+  <si>
+    <t>生物学家</t>
+  </si>
+  <si>
+    <t>be honest with</t>
+  </si>
+  <si>
+    <t>说实话</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>奖金</t>
+  </si>
+  <si>
     <t>carrot</t>
   </si>
   <si>
@@ -390,6 +426,39 @@
     <t>兑换</t>
   </si>
   <si>
+    <t>charge</t>
+  </si>
+  <si>
+    <t>收费</t>
+  </si>
+  <si>
+    <t>chemistry</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>倒塌</t>
+  </si>
+  <si>
+    <t>collide</t>
+  </si>
+  <si>
+    <t>碰撞</t>
+  </si>
+  <si>
+    <t>cost effective</t>
+  </si>
+  <si>
+    <t>合算的</t>
+  </si>
+  <si>
+    <t>confusing</t>
+  </si>
+  <si>
+    <t>扑所迷离</t>
+  </si>
+  <si>
     <t>dessert</t>
   </si>
   <si>
@@ -456,7 +525,13 @@
     <t>导向器</t>
   </si>
   <si>
-    <t>directordeposit</t>
+    <t>deposit</t>
+  </si>
+  <si>
+    <t>存款</t>
+  </si>
+  <si>
+    <t>导演</t>
   </si>
   <si>
     <t>diameter</t>
@@ -477,6 +552,12 @@
     <t>分成两部分</t>
   </si>
   <si>
+    <t>depressed</t>
+  </si>
+  <si>
+    <t>郁闷</t>
+  </si>
+  <si>
     <t>entrance</t>
   </si>
   <si>
@@ -537,6 +618,12 @@
     <t>热情</t>
   </si>
   <si>
+    <t>evolution</t>
+  </si>
+  <si>
+    <t>进化</t>
+  </si>
+  <si>
     <t>fairly</t>
   </si>
   <si>
@@ -651,6 +738,9 @@
     <t>园艺</t>
   </si>
   <si>
+    <t>geology</t>
+  </si>
+  <si>
     <t>hockey</t>
   </si>
   <si>
@@ -693,6 +783,18 @@
     <t>家庭</t>
   </si>
   <si>
+    <t>hammer</t>
+  </si>
+  <si>
+    <t>锤子</t>
+  </si>
+  <si>
+    <t>hurricane</t>
+  </si>
+  <si>
+    <t>台风</t>
+  </si>
+  <si>
     <t>intersect</t>
   </si>
   <si>
@@ -750,6 +852,12 @@
     <t>昆虫</t>
   </si>
   <si>
+    <t>interact</t>
+  </si>
+  <si>
+    <t>相互作用</t>
+  </si>
+  <si>
     <t>irreversible</t>
   </si>
   <si>
@@ -1056,6 +1164,18 @@
     <t>暂停</t>
   </si>
   <si>
+    <t>philosopher</t>
+  </si>
+  <si>
+    <t>哲学家</t>
+  </si>
+  <si>
+    <t>poet</t>
+  </si>
+  <si>
+    <t>诗人</t>
+  </si>
+  <si>
     <t>radius</t>
   </si>
   <si>
@@ -1134,6 +1254,24 @@
     <t>冰箱</t>
   </si>
   <si>
+    <t>reproduce</t>
+  </si>
+  <si>
+    <t>复制</t>
+  </si>
+  <si>
+    <t>reward</t>
+  </si>
+  <si>
+    <t>奖励</t>
+  </si>
+  <si>
+    <t>roof</t>
+  </si>
+  <si>
+    <t>屋顶</t>
+  </si>
+  <si>
     <t>scarf</t>
   </si>
   <si>
@@ -1266,6 +1404,18 @@
     <t>火炉</t>
   </si>
   <si>
+    <t>structure</t>
+  </si>
+  <si>
+    <t>结构</t>
+  </si>
+  <si>
+    <t>surive</t>
+  </si>
+  <si>
+    <t>生存</t>
+  </si>
+  <si>
     <t>tenth</t>
   </si>
   <si>
@@ -1341,6 +1491,12 @@
     <t>威胁</t>
   </si>
   <si>
+    <t>take pride in</t>
+  </si>
+  <si>
+    <t>引以为傲</t>
+  </si>
+  <si>
     <t>upset</t>
   </si>
   <si>
@@ -1353,6 +1509,12 @@
     <t>不愉快</t>
   </si>
   <si>
+    <t>universe</t>
+  </si>
+  <si>
+    <t>宇宙</t>
+  </si>
+  <si>
     <t>vomit</t>
   </si>
   <si>
@@ -1389,6 +1551,12 @@
     <t>火山</t>
   </si>
   <si>
+    <t>a various of</t>
+  </si>
+  <si>
+    <t>各种各样</t>
+  </si>
+  <si>
     <t>withdraw</t>
   </si>
   <si>
@@ -1411,6 +1579,12 @@
   </si>
   <si>
     <t>含水</t>
+  </si>
+  <si>
+    <t>word of mouth</t>
+  </si>
+  <si>
+    <t>口口相传</t>
   </si>
 </sst>
 </file>
@@ -1418,12 +1592,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1439,7 +1613,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1448,8 +1697,24 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1470,107 +1735,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1592,13 +1759,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1616,25 +1897,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1646,115 +1915,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1772,7 +1933,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1783,21 +1950,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1825,6 +1977,47 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1843,21 +2036,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1872,164 +2050,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2385,10 +2552,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B257"/>
+  <dimension ref="A1:B289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="I191" sqref="I191"/>
+    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
+      <selection activeCell="J279" sqref="J279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2597,123 +2764,123 @@
         <v>49</v>
       </c>
     </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
         <v>78</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2765,131 +2932,131 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>92</v>
-      </c>
-      <c r="B49" t="s">
-        <v>93</v>
-      </c>
-    </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B50" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B54" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B55" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B57" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B58" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B59" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B60" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B62" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B63" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
         <v>122</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2954,46 +3121,38 @@
         <v>138</v>
       </c>
       <c r="B73" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
+        <v>139</v>
+      </c>
+      <c r="B74" t="s">
         <v>140</v>
-      </c>
-      <c r="B74" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
+        <v>141</v>
+      </c>
+      <c r="B75" t="s">
         <v>142</v>
-      </c>
-      <c r="B75" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
+        <v>143</v>
+      </c>
+      <c r="B76" t="s">
         <v>144</v>
-      </c>
-      <c r="B76" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B77" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>146</v>
-      </c>
-      <c r="B78" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3021,68 +3180,76 @@
         <v>152</v>
       </c>
     </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>153</v>
+      </c>
+      <c r="B82" t="s">
+        <v>154</v>
+      </c>
+    </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B83" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B84" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B85" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B86" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B87" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B88" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B89" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B90" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -3095,465 +3262,474 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
+        <v>167</v>
+      </c>
+      <c r="B92" t="s">
         <v>171</v>
       </c>
-      <c r="B92" t="s">
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
         <v>172</v>
+      </c>
+      <c r="B93" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B94" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B95" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B96" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
         <v>179</v>
       </c>
-      <c r="B97" t="s">
-        <v>180</v>
-      </c>
-    </row>
+    </row>
+    <row r="97" ht="15" customHeight="1"/>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
+        <v>180</v>
+      </c>
+      <c r="B98" t="s">
         <v>181</v>
-      </c>
-      <c r="B98" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
+        <v>182</v>
+      </c>
+      <c r="B99" t="s">
         <v>183</v>
-      </c>
-      <c r="B99" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
+        <v>184</v>
+      </c>
+      <c r="B100" t="s">
         <v>185</v>
-      </c>
-      <c r="B100" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
+        <v>186</v>
+      </c>
+      <c r="B101" t="s">
         <v>187</v>
-      </c>
-      <c r="B101" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
+        <v>188</v>
+      </c>
+      <c r="B102" t="s">
         <v>189</v>
-      </c>
-      <c r="B102" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
+        <v>190</v>
+      </c>
+      <c r="B103" t="s">
         <v>191</v>
       </c>
-      <c r="B103" t="s">
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
         <v>192</v>
+      </c>
+      <c r="B104" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B105" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B106" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B107" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B108" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
         <v>201</v>
-      </c>
-      <c r="B109" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
+        <v>202</v>
+      </c>
+      <c r="B110" t="s">
         <v>203</v>
-      </c>
-      <c r="B110" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
+        <v>204</v>
+      </c>
+      <c r="B111" t="s">
         <v>205</v>
-      </c>
-      <c r="B111" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
+        <v>206</v>
+      </c>
+      <c r="B112" t="s">
         <v>207</v>
-      </c>
-      <c r="B112" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
+        <v>208</v>
+      </c>
+      <c r="B113" t="s">
         <v>209</v>
       </c>
-      <c r="B113" t="s">
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
         <v>210</v>
+      </c>
+      <c r="B114" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B115" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B116" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B117" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B118" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B119" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
         <v>221</v>
-      </c>
-      <c r="B120" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
+        <v>222</v>
+      </c>
+      <c r="B121" t="s">
         <v>223</v>
       </c>
-      <c r="B121" t="s">
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
         <v>224</v>
+      </c>
+      <c r="B122" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B123" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B124" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B125" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B126" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B127" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B128" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B129" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B130" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
-        <v>240</v>
-      </c>
-      <c r="B131" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
+        <v>241</v>
+      </c>
+      <c r="B132" t="s">
         <v>242</v>
-      </c>
-      <c r="B132" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
+        <v>243</v>
+      </c>
+      <c r="B133" t="s">
         <v>244</v>
       </c>
-      <c r="B133" t="s">
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
         <v>245</v>
+      </c>
+      <c r="B134" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B135" t="s">
-        <v>247</v>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>249</v>
+      </c>
+      <c r="B136" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B137" t="s">
-        <v>249</v>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>253</v>
+      </c>
+      <c r="B138" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B139" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B140" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" t="s">
-        <v>254</v>
-      </c>
-      <c r="B141" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B142" t="s">
-        <v>257</v>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>261</v>
+      </c>
+      <c r="B143" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B144" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B145" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B146" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B147" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B148" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B149" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B150" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B151" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B152" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B153" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B155" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" t="s">
-        <v>280</v>
-      </c>
-      <c r="B156" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B157" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" t="s">
-        <v>284</v>
-      </c>
-      <c r="B158" t="s">
         <v>285</v>
       </c>
     </row>
@@ -3562,151 +3738,151 @@
         <v>286</v>
       </c>
       <c r="B159" t="s">
-        <v>186</v>
+        <v>287</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B160" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B161" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B162" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B164" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B165" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B166" t="s">
-        <v>298</v>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>300</v>
+      </c>
+      <c r="B167" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B168" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B169" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B170" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B171" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B172" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B173" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" t="s">
-        <v>311</v>
-      </c>
-      <c r="B174" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B175" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B176" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B177" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B178" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B179" t="s">
-        <v>322</v>
+        <v>215</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3730,182 +3906,182 @@
         <v>327</v>
       </c>
       <c r="B182" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" t="s">
         <v>328</v>
-      </c>
-      <c r="B183" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
+        <v>329</v>
+      </c>
+      <c r="B184" t="s">
         <v>330</v>
-      </c>
-      <c r="B184" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
+        <v>331</v>
+      </c>
+      <c r="B185" t="s">
         <v>332</v>
-      </c>
-      <c r="B185" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
+        <v>333</v>
+      </c>
+      <c r="B186" t="s">
         <v>334</v>
-      </c>
-      <c r="B186" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" t="s">
-        <v>336</v>
-      </c>
-      <c r="B187" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B188" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B189" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B190" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
+        <v>341</v>
+      </c>
+      <c r="B191" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>343</v>
+      </c>
+      <c r="B192" t="s">
         <v>344</v>
-      </c>
-      <c r="B191" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
+        <v>345</v>
+      </c>
+      <c r="B193" t="s">
         <v>346</v>
-      </c>
-      <c r="B193" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
+        <v>347</v>
+      </c>
+      <c r="B194" t="s">
         <v>348</v>
-      </c>
-      <c r="B194" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
+        <v>349</v>
+      </c>
+      <c r="B195" t="s">
         <v>350</v>
-      </c>
-      <c r="B195" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
+        <v>351</v>
+      </c>
+      <c r="B196" t="s">
         <v>352</v>
-      </c>
-      <c r="B196" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
+        <v>353</v>
+      </c>
+      <c r="B197" t="s">
         <v>354</v>
-      </c>
-      <c r="B197" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
+        <v>355</v>
+      </c>
+      <c r="B198" t="s">
         <v>356</v>
-      </c>
-      <c r="B198" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
+        <v>357</v>
+      </c>
+      <c r="B199" t="s">
         <v>358</v>
-      </c>
-      <c r="B199" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
+        <v>359</v>
+      </c>
+      <c r="B200" t="s">
         <v>360</v>
-      </c>
-      <c r="B200" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
+        <v>361</v>
+      </c>
+      <c r="B201" t="s">
         <v>362</v>
-      </c>
-      <c r="B201" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B202" t="s">
-        <v>365</v>
+        <v>270</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B203" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B204" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
+        <v>368</v>
+      </c>
+      <c r="B205" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
         <v>370</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B206" t="s">
         <v>371</v>
       </c>
     </row>
@@ -3965,123 +4141,123 @@
         <v>385</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
-      <c r="A214" t="s">
-        <v>386</v>
-      </c>
-      <c r="B214" t="s">
-        <v>387</v>
-      </c>
-    </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B215" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B216" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B217" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B218" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B219" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B220" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B221" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B222" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B223" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B224" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B225" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B226" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B227" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
+        <v>412</v>
+      </c>
+      <c r="B228" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
         <v>414</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B229" t="s">
         <v>415</v>
       </c>
     </row>
@@ -4093,196 +4269,428 @@
         <v>417</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
-      <c r="A231" t="s">
-        <v>418</v>
-      </c>
-      <c r="B231" t="s">
-        <v>419</v>
-      </c>
-    </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B232" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B233" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B234" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B235" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B236" t="s">
-        <v>41</v>
+        <v>427</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
+        <v>428</v>
+      </c>
+      <c r="B237" t="s">
         <v>429</v>
-      </c>
-      <c r="B237" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
+        <v>430</v>
+      </c>
+      <c r="B238" t="s">
         <v>431</v>
-      </c>
-      <c r="B238" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
+        <v>432</v>
+      </c>
+      <c r="B239" t="s">
         <v>433</v>
-      </c>
-      <c r="B239" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
+        <v>434</v>
+      </c>
+      <c r="B240" t="s">
         <v>435</v>
-      </c>
-      <c r="B240" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
+        <v>436</v>
+      </c>
+      <c r="B241" t="s">
         <v>437</v>
-      </c>
-      <c r="B241" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
+        <v>438</v>
+      </c>
+      <c r="B242" t="s">
         <v>439</v>
       </c>
-      <c r="B242" t="s">
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
         <v>440</v>
+      </c>
+      <c r="B243" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B244" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B245" t="s">
-        <v>444</v>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
+        <v>446</v>
+      </c>
+      <c r="B246" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B247" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B248" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B249" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B250" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B251" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B252" t="s">
-        <v>456</v>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" t="s">
+        <v>460</v>
+      </c>
+      <c r="B253" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B254" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="B255" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2">
-      <c r="A256" t="s">
-        <v>461</v>
-      </c>
-      <c r="B256" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
-      <c r="A257" t="s">
-        <v>463</v>
-      </c>
-      <c r="B257" t="s">
-        <v>464</v>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
+        <v>466</v>
+      </c>
+      <c r="B258" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
+        <v>468</v>
+      </c>
+      <c r="B259" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
+        <v>470</v>
+      </c>
+      <c r="B260" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
+        <v>472</v>
+      </c>
+      <c r="B261" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
+        <v>474</v>
+      </c>
+      <c r="B262" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
+        <v>476</v>
+      </c>
+      <c r="B263" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
+        <v>478</v>
+      </c>
+      <c r="B264" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
+        <v>479</v>
+      </c>
+      <c r="B265" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="s">
+        <v>481</v>
+      </c>
+      <c r="B266" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
+        <v>483</v>
+      </c>
+      <c r="B267" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
+        <v>485</v>
+      </c>
+      <c r="B268" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
+        <v>487</v>
+      </c>
+      <c r="B269" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
+        <v>489</v>
+      </c>
+      <c r="B270" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" t="s">
+        <v>491</v>
+      </c>
+      <c r="B271" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
+        <v>493</v>
+      </c>
+      <c r="B273" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" t="s">
+        <v>495</v>
+      </c>
+      <c r="B274" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" t="s">
+        <v>497</v>
+      </c>
+      <c r="B275" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" t="s">
+        <v>499</v>
+      </c>
+      <c r="B277" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" t="s">
+        <v>501</v>
+      </c>
+      <c r="B278" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" t="s">
+        <v>503</v>
+      </c>
+      <c r="B279" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" t="s">
+        <v>505</v>
+      </c>
+      <c r="B280" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="s">
+        <v>507</v>
+      </c>
+      <c r="B281" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" t="s">
+        <v>509</v>
+      </c>
+      <c r="B282" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" t="s">
+        <v>511</v>
+      </c>
+      <c r="B283" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" t="s">
+        <v>513</v>
+      </c>
+      <c r="B285" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" t="s">
+        <v>515</v>
+      </c>
+      <c r="B286" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" t="s">
+        <v>517</v>
+      </c>
+      <c r="B287" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" t="s">
+        <v>519</v>
+      </c>
+      <c r="B288" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" t="s">
+        <v>521</v>
+      </c>
+      <c r="B289" t="s">
+        <v>522</v>
       </c>
     </row>
   </sheetData>
